--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44672</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
       </c>
       <c r="O2" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P2" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44672</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
       </c>
       <c r="O3" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P3" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44672</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
       </c>
       <c r="O2" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44672</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
       </c>
       <c r="O3" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P3" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44672</v>
+        <v>44993</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
       </c>
       <c r="O2" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P2" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -629,6 +629,86 @@
         <v>190000</v>
       </c>
       <c r="T3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Pera asiática</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>8</v>
+      </c>
+      <c r="N4" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bins (430 kilos)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>180000</v>
+      </c>
+      <c r="T4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44672</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
       </c>
       <c r="O3" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P3" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44672</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44993</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44993</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44672</v>
+        <v>44993</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
       </c>
       <c r="O3" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P3" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44993</v>
+        <v>44672</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P4" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44993</v>
+        <v>44672</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
       </c>
       <c r="O3" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P3" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44672</v>
+        <v>44993</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44672</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
       </c>
       <c r="O2" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44672</v>
+        <v>44993</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
       </c>
       <c r="O3" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P3" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44993</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44672</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
       </c>
       <c r="O2" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P2" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44672</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P4" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44672</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
       </c>
       <c r="O2" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44672</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44993</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44993</v>
+        <v>44672</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
       </c>
       <c r="O3" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P3" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44672</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44993</v>
+        <v>44672</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
       </c>
       <c r="O2" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44672</v>
+        <v>44993</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
       </c>
       <c r="O3" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P3" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44993</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44253</v>
+        <v>44993</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44993</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44993</v>
+        <v>44253</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44672</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
       </c>
       <c r="O2" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P2" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44993</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44993</v>
+        <v>44672</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P4" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44672</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
       </c>
       <c r="O2" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44993</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44672</v>
+        <v>44993</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44672</v>
+        <v>44993</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
       </c>
       <c r="O2" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P2" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44993</v>
+        <v>44672</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P4" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44993</v>
+        <v>44672</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
       </c>
       <c r="O2" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44672</v>
+        <v>44993</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44993</v>
+        <v>44253</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44253</v>
+        <v>44672</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
       </c>
       <c r="O3" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P3" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44672</v>
+        <v>44993</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Pera asiática.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44253</v>
+        <v>44993</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
         <v>180000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44672</v>
+        <v>44253</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N3" t="n">
         <v>180000</v>
       </c>
       <c r="O3" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P3" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44993</v>
+        <v>44672</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>180000</v>
       </c>
       <c r="O4" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P4" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
